--- a/학사관리 샘플데이터/샘플-성적데이터.xlsx
+++ b/학사관리 샘플데이터/샘플-성적데이터.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\DBMS\학사관리 샘플데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizworks\Reference\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="성적데이터" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,44 +409,12 @@
   </si>
   <si>
     <t>S0100</t>
-  </si>
-  <si>
-    <t>학번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과목명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -810,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7389,212 +7356,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C16" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ca="1" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <f t="shared" ca="1" si="0"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>